--- a/文档/其他文档/Others/Sports/The record of night races on F1.xlsx
+++ b/文档/其他文档/Others/Sports/The record of night races on F1.xlsx
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Singapore Circuit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yas Marina Circuit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +170,10 @@
   </si>
   <si>
     <t>Southeast Asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marina Bay Circuit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,11 +388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195964000"/>
-        <c:axId val="195964384"/>
+        <c:axId val="190782736"/>
+        <c:axId val="190928352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195964000"/>
+        <c:axId val="190782736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195964384"/>
+        <c:crossAx val="190928352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -410,7 +410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195964384"/>
+        <c:axId val="190928352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195964000"/>
+        <c:crossAx val="190782736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -613,11 +613,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="595906192"/>
-        <c:axId val="595905408"/>
+        <c:axId val="120044376"/>
+        <c:axId val="190438176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="595906192"/>
+        <c:axId val="120044376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595905408"/>
+        <c:crossAx val="190438176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595905408"/>
+        <c:axId val="190438176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595906192"/>
+        <c:crossAx val="120044376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,36 +1707,36 @@
         <v>2008</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4">
         <v>2009</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,7 +1753,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -1765,51 +1765,51 @@
         <v>2020</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5">
         <v>2021</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4">
         <v>2021</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -1827,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
         <f>B2+B4+B5+B6</f>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3">
         <f>B3</f>

--- a/文档/其他文档/Others/Sports/The record of night races on F1.xlsx
+++ b/文档/其他文档/Others/Sports/The record of night races on F1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Grand Prix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>Jeddah Street Circuit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back on 2023</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,7 +314,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -388,11 +383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190782736"/>
-        <c:axId val="190928352"/>
+        <c:axId val="75160192"/>
+        <c:axId val="75305344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190782736"/>
+        <c:axId val="75160192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190928352"/>
+        <c:crossAx val="75305344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -410,7 +405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190928352"/>
+        <c:axId val="75305344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,14 +416,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190782736"/>
+        <c:crossAx val="75160192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -488,7 +482,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -497,26 +490,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -613,11 +586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120044376"/>
-        <c:axId val="190438176"/>
+        <c:axId val="75350400"/>
+        <c:axId val="75351936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120044376"/>
+        <c:axId val="75350400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190438176"/>
+        <c:crossAx val="75351936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190438176"/>
+        <c:axId val="75351936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120044376"/>
+        <c:crossAx val="75350400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1377,7 +1350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1419,7 +1392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1454,7 +1427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1707,7 +1680,7 @@
         <v>2008</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -1765,16 +1738,16 @@
         <v>2020</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1790,8 +1763,8 @@
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1918,7 +1891,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3">
         <f>B2+B4+B5+B6</f>
@@ -1927,7 +1900,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3">
         <f>B3</f>
